--- a/timeseries_scenes.xlsx
+++ b/timeseries_scenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenasavidge/Documents/Documents - Elena’s MacBook Pro/PhD_Ch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFDA40-2717-CF4F-A36A-729D5E8E80B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A09A2-36D3-A84E-A5FF-ABEB859EF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{38D51054-0B61-1D4F-BF38-DD0CEF2E9191}"/>
+    <workbookView xWindow="4080" yWindow="620" windowWidth="24720" windowHeight="15140" xr2:uid="{38D51054-0B61-1D4F-BF38-DD0CEF2E9191}"/>
   </bookViews>
   <sheets>
     <sheet name="Visible" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="691">
   <si>
     <t>Acquisition Date</t>
   </si>
@@ -2104,6 +2104,12 @@
   </si>
   <si>
     <t>https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2022-12-01T00%3A00%3A00.000Z%2C2022-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1</t>
+  </si>
+  <si>
+    <t>MOD09.A2006080.1655.006.2015114225132.hdf</t>
+  </si>
+  <si>
+    <t>https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-21T00%3A00%3A00.000Z%2C2006-03-21T23%3A59%3A59.999Z&amp;tl=1637348351!3!!&amp;lat=-81.0703125&amp;long=-140.4140625</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2217,7 +2223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2534,15 +2539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DBAC2D-9E44-304C-A9BE-1731CBA80466}">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="94" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="4" max="4" width="96.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
@@ -3025,7 +3030,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="4">
         <v>44633</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3042,7 +3047,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>44611</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3059,7 +3064,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="4">
         <v>44583</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3076,7 +3081,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>44555</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3093,7 +3098,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="4">
         <v>44553</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3110,7 +3115,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="4">
         <v>44539</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3127,7 +3132,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="4">
         <v>44531</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3144,7 +3149,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>44529</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3161,7 +3166,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="4">
         <v>44517</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3178,7 +3183,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>44513</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4420,16 +4425,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>38788</v>
+        <v>38797</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>220</v>
+        <v>689</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>221</v>
+        <v>690</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
@@ -4437,16 +4442,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>38778</v>
+        <v>38788</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E112" s="6">
         <v>1</v>
@@ -4454,16 +4459,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>38777</v>
+        <v>38778</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -4471,16 +4476,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>38776</v>
+        <v>38777</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -4488,16 +4493,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>38757</v>
+        <v>38776</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -4505,16 +4510,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>38744</v>
+        <v>38757</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -4522,16 +4527,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>38738</v>
+        <v>38744</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -4539,16 +4544,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>38735</v>
+        <v>38738</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -4556,16 +4561,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>38733</v>
+        <v>38735</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -4573,16 +4578,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>38732</v>
+        <v>38733</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E120" s="6">
         <v>1</v>
@@ -4590,16 +4595,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>38731</v>
+        <v>38732</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -4607,16 +4612,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>38721</v>
+        <v>38731</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
@@ -4624,16 +4629,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>38719</v>
+        <v>38721</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -4641,16 +4646,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>38711</v>
+        <v>38719</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -4658,16 +4663,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>38710</v>
+        <v>38711</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E125" s="6">
         <v>1</v>
@@ -4675,16 +4680,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>38709</v>
+        <v>38710</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -4692,16 +4697,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>38700</v>
+        <v>38709</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E127" s="6">
         <v>1</v>
@@ -4709,16 +4714,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>38695</v>
+        <v>38700</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -4726,16 +4731,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>38693</v>
+        <v>38695</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E129" s="6">
         <v>1</v>
@@ -4743,16 +4748,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>38688</v>
+        <v>38693</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E130" s="6">
         <v>1</v>
@@ -4760,16 +4765,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>38687</v>
+        <v>38688</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E131" s="6">
         <v>1</v>
@@ -4777,16 +4782,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>38682</v>
+        <v>38687</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E132" s="6">
         <v>1</v>
@@ -4794,16 +4799,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>38675</v>
+        <v>38682</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E133" s="6">
         <v>1</v>
@@ -4811,16 +4816,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>38672</v>
+        <v>38675</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E134" s="6">
         <v>1</v>
@@ -4828,16 +4833,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>38671</v>
+        <v>38672</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E135" s="6">
         <v>1</v>
@@ -4845,16 +4850,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>38668</v>
+        <v>38671</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E136" s="6">
         <v>1</v>
@@ -4862,16 +4867,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>38636</v>
+        <v>38668</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E137" s="6">
         <v>1</v>
@@ -4879,16 +4884,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>38631</v>
+        <v>38636</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E138" s="6">
         <v>1</v>
@@ -4896,16 +4901,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>38611</v>
+        <v>38631</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E139" s="6">
         <v>1</v>
@@ -4913,16 +4918,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>38448</v>
+        <v>38611</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E140" s="6">
         <v>1</v>
@@ -4930,16 +4935,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>38434</v>
+        <v>38448</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E141" s="6">
         <v>1</v>
@@ -4947,16 +4952,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>38422</v>
+        <v>38434</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E142" s="6">
         <v>1</v>
@@ -4964,16 +4969,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>38407</v>
+        <v>38422</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E143" s="6">
         <v>1</v>
@@ -4981,16 +4986,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>38400</v>
+        <v>38407</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E144" s="6">
         <v>1</v>
@@ -4998,16 +5003,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>38399</v>
+        <v>38400</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E145" s="6">
         <v>1</v>
@@ -5015,16 +5020,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>38391</v>
+        <v>38399</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E146" s="6">
         <v>1</v>
@@ -5032,16 +5037,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>38387</v>
+        <v>38391</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E147" s="6">
         <v>1</v>
@@ -5049,16 +5054,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>38386</v>
+        <v>38387</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E148" s="6">
         <v>1</v>
@@ -5066,16 +5071,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>38384</v>
+        <v>38386</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E149" s="6">
         <v>1</v>
@@ -5083,16 +5088,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>38380</v>
+        <v>38384</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E150" s="6">
         <v>1</v>
@@ -5100,16 +5105,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>38378</v>
+        <v>38380</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E151" s="6">
         <v>1</v>
@@ -5117,16 +5122,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>38377</v>
+        <v>38378</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E152" s="6">
         <v>1</v>
@@ -5134,16 +5139,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>38376</v>
+        <v>38377</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E153" s="6">
         <v>1</v>
@@ -5151,16 +5156,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>38375</v>
+        <v>38376</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E154" s="6">
         <v>1</v>
@@ -5168,16 +5173,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>38374</v>
+        <v>38375</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E155" s="6">
         <v>1</v>
@@ -5185,16 +5190,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>38366</v>
+        <v>38374</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E156" s="6">
         <v>1</v>
@@ -5202,16 +5207,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>38365</v>
+        <v>38366</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E157" s="6">
         <v>1</v>
@@ -5219,16 +5224,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>38364</v>
+        <v>38365</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E158" s="6">
         <v>1</v>
@@ -5236,16 +5241,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>38360</v>
+        <v>38364</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E159" s="6">
         <v>1</v>
@@ -5253,16 +5258,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>38359</v>
+        <v>38360</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E160" s="6">
         <v>1</v>
@@ -5270,16 +5275,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>38356</v>
+        <v>38359</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E161" s="6">
         <v>1</v>
@@ -5287,16 +5292,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>38355</v>
+        <v>38356</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E162" s="6">
         <v>1</v>
@@ -5304,16 +5309,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>38354</v>
+        <v>38355</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E163" s="6">
         <v>1</v>
@@ -5321,16 +5326,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>38353</v>
+        <v>38354</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E164" s="6">
         <v>1</v>
@@ -5338,16 +5343,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>38349</v>
+        <v>38353</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E165" s="6">
         <v>1</v>
@@ -5355,16 +5360,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>38348</v>
+        <v>38349</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E166" s="6">
         <v>1</v>
@@ -5372,16 +5377,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>38347</v>
+        <v>38348</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E167" s="6">
         <v>1</v>
@@ -5389,16 +5394,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>38346</v>
+        <v>38347</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E168" s="6">
         <v>1</v>
@@ -5406,16 +5411,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>38345</v>
+        <v>38346</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E169" s="6">
         <v>1</v>
@@ -5423,16 +5428,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>38342</v>
+        <v>38345</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
@@ -5440,16 +5445,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>38341</v>
+        <v>38342</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E171" s="6">
         <v>1</v>
@@ -5457,16 +5462,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>38340</v>
+        <v>38341</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E172" s="6">
         <v>1</v>
@@ -5474,16 +5479,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>38329</v>
+        <v>38340</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E173" s="6">
         <v>1</v>
@@ -5491,16 +5496,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>38322</v>
+        <v>38329</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E174" s="6">
         <v>1</v>
@@ -5508,16 +5513,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>38320</v>
+        <v>38322</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E175" s="6">
         <v>1</v>
@@ -5525,16 +5530,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>38313</v>
+        <v>38320</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E176" s="6">
         <v>1</v>
@@ -5542,16 +5547,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>38312</v>
+        <v>38313</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E177" s="6">
         <v>1</v>
@@ -5559,16 +5564,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>38291</v>
+        <v>38312</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E178" s="6">
         <v>1</v>
@@ -5576,16 +5581,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>38262</v>
+        <v>38291</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E179" s="6">
         <v>1</v>
@@ -5593,16 +5598,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>38255</v>
+        <v>38262</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
@@ -5610,16 +5615,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>38251</v>
+        <v>38255</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E181" s="6">
         <v>1</v>
@@ -5627,16 +5632,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>38070</v>
+        <v>38251</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E182" s="6">
         <v>1</v>
@@ -5644,16 +5649,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>38064</v>
+        <v>38070</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E183" s="6">
         <v>1</v>
@@ -5661,16 +5666,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>38050</v>
+        <v>38064</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E184" s="6">
         <v>1</v>
@@ -5678,16 +5683,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>38040</v>
+        <v>38050</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E185" s="6">
         <v>1</v>
@@ -5695,16 +5700,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>38038</v>
+        <v>38040</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E186" s="6">
         <v>1</v>
@@ -5712,16 +5717,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>38033</v>
+        <v>38038</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E187" s="6">
         <v>1</v>
@@ -5729,16 +5734,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>38032</v>
+        <v>38033</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E188" s="6">
         <v>1</v>
@@ -5746,16 +5751,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>38018</v>
+        <v>38032</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E189" s="6">
         <v>1</v>
@@ -5763,16 +5768,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>38017</v>
+        <v>38018</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E190" s="6">
         <v>1</v>
@@ -5780,16 +5785,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E191" s="6">
         <v>1</v>
@@ -5797,16 +5802,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>38008</v>
+        <v>38016</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E192" s="6">
         <v>1</v>
@@ -5814,16 +5819,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>38007</v>
+        <v>38008</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E193" s="6">
         <v>1</v>
@@ -5831,16 +5836,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>38002</v>
+        <v>38007</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E194" s="6">
         <v>1</v>
@@ -5848,16 +5853,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>37993</v>
+        <v>38002</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E195" s="6">
         <v>1</v>
@@ -5865,16 +5870,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>37974</v>
+        <v>37993</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>683</v>
+        <v>389</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>684</v>
+        <v>390</v>
       </c>
       <c r="E196" s="6">
         <v>1</v>
@@ -5882,16 +5887,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>37972</v>
+        <v>37974</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>391</v>
+        <v>683</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>392</v>
+        <v>684</v>
       </c>
       <c r="E197" s="6">
         <v>1</v>
@@ -5899,16 +5904,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>37971</v>
+        <v>37972</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E198" s="6">
         <v>1</v>
@@ -5916,16 +5921,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
-        <v>37970</v>
+        <v>37971</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E199" s="6">
         <v>1</v>
@@ -5933,16 +5938,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>37969</v>
+        <v>37970</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E200" s="6">
         <v>1</v>
@@ -5950,16 +5955,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>37968</v>
+        <v>37969</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E201" s="6">
         <v>1</v>
@@ -5967,16 +5972,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>37959</v>
+        <v>37968</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E202" s="6">
         <v>1</v>
@@ -5984,16 +5989,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>37957</v>
+        <v>37959</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E203" s="6">
         <v>1</v>
@@ -6001,16 +6006,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>37956</v>
+        <v>37957</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E204" s="6">
         <v>1</v>
@@ -6018,16 +6023,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>37951</v>
+        <v>37956</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E205" s="6">
         <v>1</v>
@@ -6035,16 +6040,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>37950</v>
+        <v>37951</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E206" s="6">
         <v>1</v>
@@ -6052,16 +6057,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
-        <v>37949</v>
+        <v>37950</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
@@ -6069,16 +6074,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
-        <v>37948</v>
+        <v>37949</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E208" s="6">
         <v>1</v>
@@ -6086,16 +6091,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
-        <v>37943</v>
+        <v>37948</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E209" s="6">
         <v>1</v>
@@ -6103,16 +6108,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>37937</v>
+        <v>37943</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E210" s="6">
         <v>1</v>
@@ -6120,16 +6125,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>37930</v>
+        <v>37937</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E211" s="6">
         <v>1</v>
@@ -6137,16 +6142,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>37929</v>
+        <v>37930</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E212" s="6">
         <v>1</v>
@@ -6154,16 +6159,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>37920</v>
+        <v>37929</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E213" s="6">
         <v>1</v>
@@ -6171,16 +6176,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>37919</v>
+        <v>37920</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E214" s="6">
         <v>1</v>
@@ -6188,16 +6193,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
-        <v>37917</v>
+        <v>37919</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E215" s="6">
         <v>1</v>
@@ -6205,16 +6210,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
-        <v>37896</v>
+        <v>37917</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E216" s="6">
         <v>1</v>
@@ -6222,16 +6227,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
-        <v>37895</v>
+        <v>37896</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E217" s="6">
         <v>1</v>
@@ -6239,16 +6244,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
-        <v>37894</v>
+        <v>37895</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E218" s="6">
         <v>1</v>
@@ -6256,16 +6261,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
-        <v>37893</v>
+        <v>37894</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E219" s="6">
         <v>1</v>
@@ -6273,16 +6278,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
-        <v>37890</v>
+        <v>37893</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E220" s="6">
         <v>1</v>
@@ -6290,16 +6295,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>37889</v>
+        <v>37890</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E221" s="6">
         <v>1</v>
@@ -6307,16 +6312,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>37871</v>
+        <v>37889</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E222" s="6">
         <v>1</v>
@@ -6324,16 +6329,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>37165</v>
+        <v>37871</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E223" s="6">
         <v>1</v>
@@ -6341,16 +6346,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <v>37163</v>
+        <v>37165</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E224" s="6">
         <v>1</v>
@@ -6358,16 +6363,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>36977</v>
+        <v>37163</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E225" s="6">
         <v>1</v>
@@ -6375,16 +6380,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>36948</v>
+        <v>36977</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E226" s="6">
         <v>1</v>
@@ -6392,16 +6397,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>36947</v>
+        <v>36948</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
@@ -6409,16 +6414,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>36943</v>
+        <v>36947</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
@@ -6426,16 +6431,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>36934</v>
+        <v>36943</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E229" s="6">
         <v>1</v>
@@ -6443,16 +6448,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>36932</v>
+        <v>36934</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E230" s="6">
         <v>1</v>
@@ -6460,16 +6465,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>36927</v>
+        <v>36932</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
@@ -6477,16 +6482,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>36926</v>
+        <v>36927</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E232" s="6">
         <v>1</v>
@@ -6494,16 +6499,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>36924</v>
+        <v>36926</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E233" s="6">
         <v>1</v>
@@ -6511,16 +6516,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>36923</v>
+        <v>36924</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E234" s="6">
         <v>1</v>
@@ -6528,16 +6533,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>36921</v>
+        <v>36923</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E235" s="6">
         <v>1</v>
@@ -6545,16 +6550,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>36914</v>
+        <v>36921</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E236" s="6">
         <v>1</v>
@@ -6562,16 +6567,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>36913</v>
+        <v>36914</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E237" s="6">
         <v>1</v>
@@ -6579,16 +6584,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>36908</v>
+        <v>36913</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E238" s="6">
         <v>1</v>
@@ -6596,16 +6601,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>36905</v>
+        <v>36908</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E239" s="6">
         <v>1</v>
@@ -6613,16 +6618,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>36904</v>
+        <v>36905</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E240" s="6">
         <v>1</v>
@@ -6630,16 +6635,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>36903</v>
+        <v>36904</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E241" s="6">
         <v>1</v>
@@ -6647,16 +6652,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>36895</v>
+        <v>36903</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E242" s="6">
         <v>1</v>
@@ -6664,16 +6669,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>36894</v>
+        <v>36895</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E243" s="6">
         <v>1</v>
@@ -6681,16 +6686,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>36892</v>
+        <v>36894</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E244" s="6">
         <v>1</v>
@@ -6698,16 +6703,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>36881</v>
+        <v>36892</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E245" s="6">
         <v>1</v>
@@ -6715,16 +6720,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>36880</v>
+        <v>36881</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E246" s="6">
         <v>1</v>
@@ -6732,16 +6737,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>36879</v>
+        <v>36880</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E247" s="6">
         <v>1</v>
@@ -6749,16 +6754,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>36878</v>
+        <v>36879</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E248" s="6">
         <v>1</v>
@@ -6766,16 +6771,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <v>36877</v>
+        <v>36878</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E249" s="6">
         <v>1</v>
@@ -6783,16 +6788,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
-        <v>36876</v>
+        <v>36877</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E250" s="6">
         <v>1</v>
@@ -6800,16 +6805,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
-        <v>36873</v>
+        <v>36876</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E251" s="6">
         <v>1</v>
@@ -6817,16 +6822,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
-        <v>36872</v>
+        <v>36873</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E252" s="6">
         <v>1</v>
@@ -6834,16 +6839,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <v>36870</v>
+        <v>36872</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E253" s="6">
         <v>1</v>
@@ -6851,16 +6856,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <v>36869</v>
+        <v>36870</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E254" s="6">
         <v>1</v>
@@ -6868,16 +6873,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
-        <v>36868</v>
+        <v>36869</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E255" s="6">
         <v>1</v>
@@ -6885,16 +6890,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
-        <v>36862</v>
+        <v>36868</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E256" s="6">
         <v>1</v>
@@ -6902,16 +6907,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
-        <v>36861</v>
+        <v>36862</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E257" s="6">
         <v>1</v>
@@ -6919,16 +6924,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
-        <v>36859</v>
+        <v>36861</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E258" s="6">
         <v>1</v>
@@ -6936,16 +6941,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
-        <v>36858</v>
+        <v>36859</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E259" s="6">
         <v>1</v>
@@ -6953,16 +6958,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
-        <v>36857</v>
+        <v>36858</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
@@ -6970,16 +6975,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
-        <v>36851</v>
+        <v>36857</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
@@ -6987,16 +6992,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
-        <v>36815</v>
+        <v>36851</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
@@ -7004,16 +7009,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
-        <v>36814</v>
+        <v>36815</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
@@ -7021,16 +7026,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
-        <v>36794</v>
+        <v>36814</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
@@ -7038,16 +7043,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
-        <v>36785</v>
+        <v>36794</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
@@ -7055,16 +7060,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
-        <v>36779</v>
+        <v>36785</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
@@ -7072,16 +7077,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
-        <v>36609</v>
+        <v>36779</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E267" s="6">
         <v>1</v>
@@ -7089,16 +7094,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
-        <v>36608</v>
+        <v>36609</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E268" s="6">
         <v>1</v>
@@ -7106,16 +7111,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
-        <v>36604</v>
+        <v>36608</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E269" s="6">
         <v>1</v>
@@ -7123,16 +7128,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
-        <v>36592</v>
+        <v>36604</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E270" s="6">
         <v>1</v>
@@ -7140,16 +7145,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
-        <v>36591</v>
+        <v>36592</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E271" s="6">
         <v>1</v>
@@ -7157,16 +7162,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
-        <v>36590</v>
+        <v>36591</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E272" s="6">
         <v>1</v>
@@ -7174,18 +7179,35 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
+        <v>36590</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E273" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="4">
         <v>36586</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B274" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D273" s="7" t="s">
+      <c r="C274" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="E273" s="6">
+      <c r="E274" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7271,171 +7293,172 @@
     <hyperlink ref="D108" r:id="rId78" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-10-04T00%3A00%3A00.000Z%2C2006-10-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DFE9D088-E51C-B047-A93F-4CC188C5AB2A}"/>
     <hyperlink ref="D109" r:id="rId79" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-09-21T00%3A00%3A00.000Z%2C2006-09-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2D3D92E6-A52A-234B-9D3F-7B1D1C279E38}"/>
     <hyperlink ref="D110" r:id="rId80" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-09-13T00%3A00%3A00.000Z%2C2006-09-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{CE3220F8-E7B0-1B4C-9B3D-0893893F209D}"/>
-    <hyperlink ref="D111" r:id="rId81" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-12T00%3A00%3A00.000Z%2C2006-03-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{112BCB06-60A4-8F4E-8AC5-E516776B7D35}"/>
-    <hyperlink ref="D112" r:id="rId82" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-02T00%3A00%3A00.000Z%2C2006-03-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B39B793C-28AA-C24F-8805-6621EA958655}"/>
-    <hyperlink ref="D113" r:id="rId83" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-01T00%3A00%3A00.000Z%2C2006-03-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7E960A70-FFBE-1843-88DB-FCF69ECF1706}"/>
-    <hyperlink ref="D114" r:id="rId84" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-02-28T00%3A00%3A00.000Z%2C2006-02-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{42B9D202-A130-C240-9B2B-25558CC484A8}"/>
-    <hyperlink ref="D115" r:id="rId85" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-02-09T00%3A00%3A00.000Z%2C2006-02-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B57534B1-BD8B-B447-A724-D0F558047433}"/>
-    <hyperlink ref="D116" r:id="rId86" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-27T00%3A00%3A00.000Z%2C2006-01-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{024BE824-0ED7-884F-8FCF-72A2AED68B4C}"/>
-    <hyperlink ref="D117" r:id="rId87" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-21T00%3A00%3A00.000Z%2C2006-01-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E719BE38-19F5-E241-9E8A-E1295CDEA6B2}"/>
-    <hyperlink ref="D118" r:id="rId88" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-18T00%3A00%3A00.000Z%2C2006-01-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D454D2D8-5759-5347-9C98-0F6ABE167487}"/>
-    <hyperlink ref="D119" r:id="rId89" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-16T00%3A00%3A00.000Z%2C2006-01-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DF1B7626-C960-3440-92A9-F3E06B00205D}"/>
-    <hyperlink ref="D120" r:id="rId90" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-15T00%3A00%3A00.000Z%2C2006-01-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C8E80791-F5C3-6C42-AA71-AB7968E36D36}"/>
-    <hyperlink ref="D121" r:id="rId91" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-14T00%3A00%3A00.000Z%2C2006-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{922E9634-18EC-9F41-A7CC-7663F60FBDA0}"/>
-    <hyperlink ref="D122" r:id="rId92" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-04T00%3A00%3A00.000Z%2C2006-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C3C0A4D5-829E-984B-A05D-A36DDBB91EA3}"/>
-    <hyperlink ref="D123" r:id="rId93" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-02T00%3A00%3A00.000Z%2C2006-01-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D645B826-EA7F-7242-BD6E-AD93FEE881F0}"/>
-    <hyperlink ref="D124" r:id="rId94" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-25T00%3A00%3A00.000Z%2C2005-12-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{98A724E5-1DD5-FE4D-89DF-E61800FB7143}"/>
-    <hyperlink ref="D125" r:id="rId95" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-24T00%3A00%3A00.000Z%2C2005-12-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5736FF5E-DB19-1B40-AC9E-75E234AB5213}"/>
-    <hyperlink ref="D126" r:id="rId96" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-23T00%3A00%3A00.000Z%2C2005-12-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D192712B-8DE9-8E46-8BFF-74FD8874DFCC}"/>
-    <hyperlink ref="D127" r:id="rId97" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-14T00%3A00%3A00.000Z%2C2005-12-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{280454AB-21D2-834F-A705-9C24DAA0E711}"/>
-    <hyperlink ref="D128" r:id="rId98" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-09T00%3A00%3A00.000Z%2C2005-12-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{69157D88-DDAE-CE4E-9C32-64C2DFE1559B}"/>
-    <hyperlink ref="D129" r:id="rId99" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-07T00%3A00%3A00.000Z%2C2005-12-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9CC8F0DF-C64D-0449-92AA-121F9DD9AE4D}"/>
-    <hyperlink ref="D130" r:id="rId100" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-02T00%3A00%3A00.000Z%2C2005-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{CD443DE3-ADAE-2D42-A7B4-34DADC22990B}"/>
-    <hyperlink ref="D131" r:id="rId101" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-01T00%3A00%3A00.000Z%2C2005-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C097FB49-6015-6748-8E7A-070BF0B30D42}"/>
-    <hyperlink ref="D132" r:id="rId102" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-26T00%3A00%3A00.000Z%2C2005-11-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{1C86507A-653B-6F47-A59F-C4ED4984DCCB}"/>
-    <hyperlink ref="D133" r:id="rId103" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-19T00%3A00%3A00.000Z%2C2005-11-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C9D5954E-7F82-BC4F-901E-D93F45DC771C}"/>
-    <hyperlink ref="D134" r:id="rId104" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-16T00%3A00%3A00.000Z%2C2005-11-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2088CE97-11A3-3A4E-AC3F-6E30319F7BDF}"/>
-    <hyperlink ref="D135" r:id="rId105" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-15T00%3A00%3A00.000Z%2C2005-11-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{04B6F500-F8C2-D840-8CCF-5FE7EAEBD7F2}"/>
-    <hyperlink ref="D136" r:id="rId106" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-12T00%3A00%3A00.000Z%2C2005-11-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0EDED295-BD15-F34F-A786-BF3E2C4BEC55}"/>
-    <hyperlink ref="D137" r:id="rId107" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-10-11T00%3A00%3A00.000Z%2C2005-10-11T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8426B21C-5226-9B4B-8839-785115FFEFF7}"/>
-    <hyperlink ref="D138" r:id="rId108" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-10-06T00%3A00%3A00.000Z%2C2005-10-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{001DFA6E-E48A-2141-8360-317E2F6D1C47}"/>
-    <hyperlink ref="D139" r:id="rId109" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-09-16T00%3A00%3A00.000Z%2C2005-09-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{898ECB82-BEF6-034F-B950-78C79CC3F02F}"/>
-    <hyperlink ref="D140" r:id="rId110" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-04-06T00%3A00%3A00.000Z%2C2005-04-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8E23B0C5-8B4A-3B42-B1DD-35EDBA566E02}"/>
-    <hyperlink ref="D141" r:id="rId111" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-03-23T00%3A00%3A00.000Z%2C2005-03-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C04FF8D9-3713-5141-9812-4F2ACA937A89}"/>
-    <hyperlink ref="D142" r:id="rId112" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-03-11T00%3A00%3A00.000Z%2C2005-03-11T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9B7C304B-C6BC-124B-8AB9-FCF3527A688C}"/>
-    <hyperlink ref="D143" r:id="rId113" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-24T00%3A00%3A00.000Z%2C2005-02-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{702B82DB-1960-BC46-9FBE-7789E6ECE059}"/>
-    <hyperlink ref="D144" r:id="rId114" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-17T00%3A00%3A00.000Z%2C2005-02-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E1AB5941-F8FB-B145-B701-0794C5EC06EE}"/>
-    <hyperlink ref="D145" r:id="rId115" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-16T00%3A00%3A00.000Z%2C2005-02-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FDFBAC22-4FD6-1C47-8E33-F60B30F85A12}"/>
-    <hyperlink ref="D146" r:id="rId116" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-08T00%3A00%3A00.000Z%2C2005-02-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{409A3225-5AF2-414E-9AB5-F30B8B0FB6A1}"/>
-    <hyperlink ref="D147" r:id="rId117" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-04T00%3A00%3A00.000Z%2C2005-02-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{A1FDE1A4-A766-5543-918B-C5C075782300}"/>
-    <hyperlink ref="D148" r:id="rId118" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-03T00%3A00%3A00.000Z%2C2005-02-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9AA7653E-2CB7-8E4E-A4CE-C56EB1674556}"/>
-    <hyperlink ref="D149" r:id="rId119" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-01T00%3A00%3A00.000Z%2C2005-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{554F55FE-57DC-E94B-A618-6A04E0AD51F1}"/>
-    <hyperlink ref="D150" r:id="rId120" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-28T00%3A00%3A00.000Z%2C2005-01-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{07D5772A-3190-5240-959B-07150F812246}"/>
-    <hyperlink ref="D151" r:id="rId121" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-26T00%3A00%3A00.000Z%2C2005-01-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0546340D-E3B0-FF43-AE12-83E59C68D566}"/>
-    <hyperlink ref="D152" r:id="rId122" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-25T00%3A00%3A00.000Z%2C2005-01-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BD554860-3FB4-F543-BE64-D2077F9DA550}"/>
-    <hyperlink ref="D153" r:id="rId123" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-24T00%3A00%3A00.000Z%2C2005-01-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2C169DB4-D299-6B44-972B-7961353D0736}"/>
-    <hyperlink ref="D154" r:id="rId124" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-23T00%3A00%3A00.000Z%2C2005-01-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{43756323-9FC7-D34E-93F7-8AE9C99DF463}"/>
-    <hyperlink ref="D155" r:id="rId125" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-22T00%3A00%3A00.000Z%2C2005-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FE398C8D-D56A-2242-9EBD-602528835A66}"/>
-    <hyperlink ref="D156" r:id="rId126" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-14T00%3A00%3A00.000Z%2C2005-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C2F1E45F-E60D-F74C-B1CB-64542C4A7BA9}"/>
-    <hyperlink ref="D157" r:id="rId127" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-13T00%3A00%3A00.000Z%2C2005-01-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7192BA7C-6C1B-2140-9145-4BB08EA59A8B}"/>
-    <hyperlink ref="D158" r:id="rId128" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-12T00%3A00%3A00.000Z%2C2005-01-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E5EEF6EA-B421-4C4B-9A08-C76A3E51013D}"/>
-    <hyperlink ref="D159" r:id="rId129" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-08T00%3A00%3A00.000Z%2C2005-01-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9A857016-0C0C-7340-A665-70C2911669A5}"/>
-    <hyperlink ref="D160" r:id="rId130" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-07T00%3A00%3A00.000Z%2C2005-01-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{596C3A71-DC64-CA4E-9B06-9F8CFF330B92}"/>
-    <hyperlink ref="D161" r:id="rId131" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-04T00%3A00%3A00.000Z%2C2005-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E75EB0CE-DFB4-3E45-9A72-9C5A9A53E92E}"/>
-    <hyperlink ref="D162" r:id="rId132" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-03T00%3A00%3A00.000Z%2C2005-01-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{394D1AAF-65D1-7949-AE90-F85C29C42807}"/>
-    <hyperlink ref="D163" r:id="rId133" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-02T00%3A00%3A00.000Z%2C2005-01-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{90877B04-B090-2F4F-BD8D-5C8F85E83A6B}"/>
-    <hyperlink ref="D164" r:id="rId134" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-01T00%3A00%3A00.000Z%2C2005-01-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0B76F23B-DC79-4842-B612-65566C8A7D5D}"/>
-    <hyperlink ref="D165" r:id="rId135" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-28T00%3A00%3A00.000Z%2C2004-12-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DC4A71FB-8897-0846-A0EC-723BCED9CDAA}"/>
-    <hyperlink ref="D166" r:id="rId136" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-27T00%3A00%3A00.000Z%2C2004-12-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{731F2532-2CD7-BC4D-BFE4-A19C5CE0A34E}"/>
-    <hyperlink ref="D167" r:id="rId137" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-26T00%3A00%3A00.000Z%2C2004-12-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2BCA3341-30F7-7042-B75D-3422A397CC5C}"/>
-    <hyperlink ref="D168" r:id="rId138" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-25T00%3A00%3A00.000Z%2C2004-12-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{08E29EA9-A491-DE4A-BD9E-FAB54860718F}"/>
-    <hyperlink ref="D169" r:id="rId139" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-24T00%3A00%3A00.000Z%2C2004-12-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{90AB206E-2547-7D4C-B1F0-9EC5178651F2}"/>
-    <hyperlink ref="D170" r:id="rId140" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-21T00%3A00%3A00.000Z%2C2004-12-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{36DAF6AB-88E6-354E-879A-460B9BBF2BDA}"/>
-    <hyperlink ref="D171" r:id="rId141" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-20T00%3A00%3A00.000Z%2C2004-12-20T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7D12782E-8ADC-BF4A-9D56-89D261EB3E03}"/>
-    <hyperlink ref="D172" r:id="rId142" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-19T00%3A00%3A00.000Z%2C2004-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8D5EC8E0-3BD5-B344-A9C1-BC95B3A23486}"/>
-    <hyperlink ref="D173" r:id="rId143" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-08T00%3A00%3A00.000Z%2C2004-12-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0F95BDD1-4502-D84C-BE50-A0DE03B3D2C8}"/>
-    <hyperlink ref="D174" r:id="rId144" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-01T00%3A00%3A00.000Z%2C2004-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8AFCB59A-4E45-6E4F-944F-06B17420AD2B}"/>
-    <hyperlink ref="D175" r:id="rId145" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-29T00%3A00%3A00.000Z%2C2004-11-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{220A6537-25EF-E647-BD97-3CF338D72E57}"/>
-    <hyperlink ref="D176" r:id="rId146" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-22T00%3A00%3A00.000Z%2C2004-11-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B2381ED9-4899-6B40-BF82-9C86EFFB324F}"/>
-    <hyperlink ref="D177" r:id="rId147" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-21T00%3A00%3A00.000Z%2C2004-11-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{71A53085-0163-CB41-9AD5-7A59D6AA915E}"/>
-    <hyperlink ref="D178" r:id="rId148" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-10-31T00%3A00%3A00.000Z%2C2004-10-31T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{84335060-8AE9-FA4B-B902-EBA845B8AC46}"/>
-    <hyperlink ref="D179" r:id="rId149" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-10-02T00%3A00%3A00.000Z%2C2004-10-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{74864D8D-8C4B-2248-B044-AE9BF9188A8E}"/>
-    <hyperlink ref="D180" r:id="rId150" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-09-25T00%3A00%3A00.000Z%2C2004-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6A64EC4D-F65E-E341-9B1D-BF2360E1AA46}"/>
-    <hyperlink ref="D181" r:id="rId151" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-09-21T00%3A00%3A00.000Z%2C2004-09-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FEDC5864-5053-EA4D-96EA-96E2A64EE41C}"/>
-    <hyperlink ref="D182" r:id="rId152" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-24T00%3A00%3A00.000Z%2C2004-03-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0493D198-0187-CF49-85BF-7F8000D79A53}"/>
-    <hyperlink ref="D183" r:id="rId153" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-18T00%3A00%3A00.000Z%2C2004-03-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{CC0089AA-F5FF-4940-9294-840087CA6EBA}"/>
-    <hyperlink ref="D184" r:id="rId154" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-04T00%3A00%3A00.000Z%2C2004-03-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{697A0583-1C33-E643-A527-7FDD6253C262}"/>
-    <hyperlink ref="D185" r:id="rId155" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-23T00%3A00%3A00.000Z%2C2004-02-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5DF4BD8C-DC0C-9D49-9F81-5E0841AC76EB}"/>
-    <hyperlink ref="D186" r:id="rId156" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-21T00%3A00%3A00.000Z%2C2004-02-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BA776BB6-828F-D843-A62F-57A36D8AF41F}"/>
-    <hyperlink ref="D187" r:id="rId157" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-16T00%3A00%3A00.000Z%2C2004-02-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{71EAF9E0-8DE7-F14B-99AC-6D4E3084EC76}"/>
-    <hyperlink ref="D188" r:id="rId158" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-15T00%3A00%3A00.000Z%2C2004-02-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{3DCB49E6-4F12-9D4A-B458-921B56D33AE9}"/>
-    <hyperlink ref="D189" r:id="rId159" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-01T00%3A00%3A00.000Z%2C2004-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5C32A502-556A-0447-B3DC-1F201189E3FB}"/>
-    <hyperlink ref="D190" r:id="rId160" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-31T00%3A00%3A00.000Z%2C2004-01-31T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6F51A69A-DA15-D040-B456-5AD5471AF935}"/>
-    <hyperlink ref="D191" r:id="rId161" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-30T00%3A00%3A00.000Z%2C2004-01-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{206AC642-7D7F-F549-B0CC-C32E69D3F458}"/>
-    <hyperlink ref="D192" r:id="rId162" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-22T00%3A00%3A00.000Z%2C2004-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FE25FDAF-9F40-684C-85B1-46DB5289C5AE}"/>
-    <hyperlink ref="D193" r:id="rId163" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-21T00%3A00%3A00.000Z%2C2004-01-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{F9613D1E-A817-0C4B-9BA7-05EE08B7D8DA}"/>
-    <hyperlink ref="D194" r:id="rId164" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-16T00%3A00%3A00.000Z%2C2004-01-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6729FC57-C5D5-6040-87E0-CCEDE365199B}"/>
-    <hyperlink ref="D195" r:id="rId165" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-07T00%3A00%3A00.000Z%2C2004-01-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{53240F4F-FA6D-4641-951B-CD3DFA564169}"/>
-    <hyperlink ref="D197" r:id="rId166" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-17T00%3A00%3A00.000Z%2C2003-12-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{07E8A216-8CE9-BD42-BC82-CC12EBF8D2BC}"/>
-    <hyperlink ref="D198" r:id="rId167" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-16T00%3A00%3A00.000Z%2C2003-12-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{44B32A36-6B69-8040-B46F-A540FF62C435}"/>
-    <hyperlink ref="D199" r:id="rId168" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-15T00%3A00%3A00.000Z%2C2003-12-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9AC2444A-A1A6-D449-96D2-21C3EF9CCA89}"/>
-    <hyperlink ref="D200" r:id="rId169" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-14T00%3A00%3A00.000Z%2C2003-12-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DFF960B0-E5C3-B94C-8533-17E672377887}"/>
-    <hyperlink ref="D201" r:id="rId170" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-13T00%3A00%3A00.000Z%2C2003-12-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8D8A7905-6703-5645-9792-7A1E2FDDFC3D}"/>
-    <hyperlink ref="D202" r:id="rId171" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-04T00%3A00%3A00.000Z%2C2003-12-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{51286F25-8B46-3847-B00B-20D99DFF7E78}"/>
-    <hyperlink ref="D203" r:id="rId172" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-02T00%3A00%3A00.000Z%2C2003-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{70A3E78F-D6AA-1B49-BF4C-25158647A0D7}"/>
-    <hyperlink ref="D204" r:id="rId173" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-01T00%3A00%3A00.000Z%2C2003-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8BA38F99-CE32-9E43-9214-663CF1E49B4B}"/>
-    <hyperlink ref="D205" r:id="rId174" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-26T00%3A00%3A00.000Z%2C2003-11-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AF97571E-C440-5E40-8936-BA13686CCB9F}"/>
-    <hyperlink ref="D206" r:id="rId175" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-25T00%3A00%3A00.000Z%2C2003-11-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D8A362B7-18D5-0F41-9579-3A5A8AB2F4EF}"/>
-    <hyperlink ref="D207" r:id="rId176" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-24T00%3A00%3A00.000Z%2C2003-11-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AC0D4D1F-BE13-944E-B162-AE472EDA9757}"/>
-    <hyperlink ref="D208" r:id="rId177" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-23T00%3A00%3A00.000Z%2C2003-11-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0674E6D7-2336-0C44-A61B-2710C46A60BD}"/>
-    <hyperlink ref="D209" r:id="rId178" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-18T00%3A00%3A00.000Z%2C2003-11-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AD49385F-205D-904C-BA80-FF0A846391A7}"/>
-    <hyperlink ref="D210" r:id="rId179" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-12T00%3A00%3A00.000Z%2C2003-11-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{23D9A8A2-678D-8A4F-8A7F-A4394E833AC4}"/>
-    <hyperlink ref="D211" r:id="rId180" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-05T00%3A00%3A00.000Z%2C2003-11-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BAE677B9-5D2D-7A42-8B1A-8EA00297E2A8}"/>
-    <hyperlink ref="D212" r:id="rId181" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-04T00%3A00%3A00.000Z%2C2003-11-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{193C40C0-37FA-1749-BB47-E6459A3D6949}"/>
-    <hyperlink ref="D213" r:id="rId182" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-26T00%3A00%3A00.000Z%2C2003-10-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C747FF14-B0A1-7846-82E5-C98CEC1FB89F}"/>
-    <hyperlink ref="D214" r:id="rId183" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-25T00%3A00%3A00.000Z%2C2003-10-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5EB2DC56-CF69-7A45-A82F-01DE5243B694}"/>
-    <hyperlink ref="D215" r:id="rId184" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-23T00%3A00%3A00.000Z%2C2003-10-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5161095D-EFEB-E947-A2DF-31750C9CF889}"/>
-    <hyperlink ref="D216" r:id="rId185" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-02T00%3A00%3A00.000Z%2C2003-10-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{F98ABF14-4646-CC43-A1C7-29E4ECCD22F8}"/>
-    <hyperlink ref="D217" r:id="rId186" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-01T00%3A00%3A00.000Z%2C2003-10-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AEF309E5-76B7-704B-8CA4-308DE82642E5}"/>
-    <hyperlink ref="D218" r:id="rId187" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-30T00%3A00%3A00.000Z%2C2003-09-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D8A76354-ACE9-1942-90FD-979C280AC6A9}"/>
-    <hyperlink ref="D219" r:id="rId188" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-29T00%3A00%3A00.000Z%2C2003-09-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0680EC95-B0E9-984E-9CC9-CF7B81869788}"/>
-    <hyperlink ref="D220" r:id="rId189" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-26T00%3A00%3A00.000Z%2C2003-09-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DD04D622-50FC-8B47-8AC4-9A912A8CFEA6}"/>
-    <hyperlink ref="D221" r:id="rId190" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-25T00%3A00%3A00.000Z%2C2003-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{4EFA28D1-98AB-BE46-BB8B-5BD324EF003B}"/>
-    <hyperlink ref="D222" r:id="rId191" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-07T00%3A00%3A00.000Z%2C2003-09-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{33D659AE-B492-344C-8984-D852950D40F1}"/>
-    <hyperlink ref="D223" r:id="rId192" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-10-01T00%3A00%3A00.000Z%2C2001-10-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{195030A9-A0FA-C54C-A336-A8E250F18AD2}"/>
-    <hyperlink ref="D224" r:id="rId193" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-09-29T00%3A00%3A00.000Z%2C2001-09-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{25BDA563-B4F4-F646-AAE3-A1129ECB0950}"/>
-    <hyperlink ref="D225" r:id="rId194" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-03-27T00%3A00%3A00.000Z%2C2001-03-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{06C55310-2709-1844-8842-E1242816A60A}"/>
-    <hyperlink ref="D226" r:id="rId195" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-26T00%3A00%3A00.000Z%2C2001-02-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B655222B-08D8-7849-8EA9-7273E5E20E60}"/>
-    <hyperlink ref="D227" r:id="rId196" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-25T00%3A00%3A00.000Z%2C2001-02-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{99A2D02E-1E14-EC4A-B489-33DA1C36A68A}"/>
-    <hyperlink ref="D228" r:id="rId197" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-21T00%3A00%3A00.000Z%2C2001-02-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{15E62C10-C9CA-0344-88CB-5DA996FF944E}"/>
-    <hyperlink ref="D229" r:id="rId198" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-12T00%3A00%3A00.000Z%2C2001-02-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{358CD317-180D-5741-85F1-F2193C6787DA}"/>
-    <hyperlink ref="D230" r:id="rId199" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-10T00%3A00%3A00.000Z%2C2001-02-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{4FA0F34E-13F9-644A-B205-06BB6D470117}"/>
-    <hyperlink ref="D231" r:id="rId200" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-05T00%3A00%3A00.000Z%2C2001-02-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{92EE0FC6-ECF6-754F-B160-3864C0CC272C}"/>
-    <hyperlink ref="D232" r:id="rId201" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-04T00%3A00%3A00.000Z%2C2001-02-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{092E9FF9-BDB2-7F4F-8094-6CDCF19137F1}"/>
-    <hyperlink ref="D233" r:id="rId202" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-02T00%3A00%3A00.000Z%2C2001-02-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{B51C6729-DC25-4D42-9AD9-5B17C4B926E5}"/>
-    <hyperlink ref="D234" r:id="rId203" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-01T00%3A00%3A00.000Z%2C2001-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{20F7C2A9-7327-5B4D-BBAB-76FE04134DB6}"/>
-    <hyperlink ref="D235" r:id="rId204" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-30T00%3A00%3A00.000Z%2C2001-01-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{DDA839DD-7826-BA4D-B618-3FBE909B30E8}"/>
-    <hyperlink ref="D236" r:id="rId205" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-23T00%3A00%3A00.000Z%2C2001-01-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D97870E0-A36B-CE45-81F4-E482A87FB8F2}"/>
-    <hyperlink ref="D237" r:id="rId206" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-22T00%3A00%3A00.000Z%2C2001-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A14B9FBB-9D54-EC42-9D04-6E0158F6ACC3}"/>
-    <hyperlink ref="D238" r:id="rId207" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-17T00%3A00%3A00.000Z%2C2001-01-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{5E5589E8-1EFE-874E-99E4-A52DA356EB60}"/>
-    <hyperlink ref="D239" r:id="rId208" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-14T00%3A00%3A00.000Z%2C2001-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{641BD262-DFC5-E84A-B677-9837A1B63378}"/>
-    <hyperlink ref="D240" r:id="rId209" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-13T00%3A00%3A00.000Z%2C2001-01-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{0C74DA12-28DE-C845-8B23-6B37A573214A}"/>
-    <hyperlink ref="D241" r:id="rId210" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-12T00%3A00%3A00.000Z%2C2001-01-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{26DDD478-1ACA-8B4A-970C-EDD28ED9CEEE}"/>
-    <hyperlink ref="D242" r:id="rId211" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-04T00%3A00%3A00.000Z%2C2001-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D35616A1-CD95-D148-8B6B-A875E900A5F7}"/>
-    <hyperlink ref="D243" r:id="rId212" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-03T00%3A00%3A00.000Z%2C2001-01-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{E2CEA45A-54F7-CB49-9F97-B2D677DA5730}"/>
-    <hyperlink ref="D244" r:id="rId213" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-01T00%3A00%3A00.000Z%2C2001-01-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{34F35216-B8A0-6F48-B11D-DB7AF5F7193A}"/>
-    <hyperlink ref="D245" r:id="rId214" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-21T00%3A00%3A00.000Z%2C2000-12-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{2EB27483-25BD-D844-8E84-A532F146CE15}"/>
-    <hyperlink ref="D246" r:id="rId215" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-20T00%3A00%3A00.000Z%2C2000-12-20T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{83E0B7D0-43FC-9B46-A2AB-EAB1F414E6EA}"/>
-    <hyperlink ref="D247" r:id="rId216" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-19T00%3A00%3A00.000Z%2C2000-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{EF92192F-59FD-3B48-B093-2F153A0B147C}"/>
-    <hyperlink ref="D248" r:id="rId217" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-18T00%3A00%3A00.000Z%2C2000-12-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{645E73CD-CF79-A041-90D4-F4C66FBF3E03}"/>
-    <hyperlink ref="D249" r:id="rId218" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-17T00%3A00%3A00.000Z%2C2000-12-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{3D6700B9-9F22-4140-B8E8-CB38011C75D6}"/>
-    <hyperlink ref="D250" r:id="rId219" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-16T00%3A00%3A00.000Z%2C2000-12-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{63A74CB0-CC90-E746-9B63-FA44AAD388F0}"/>
-    <hyperlink ref="D251" r:id="rId220" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-13T00%3A00%3A00.000Z%2C2000-12-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{7D6DDEC9-9B44-8849-975D-7BC6374F500D}"/>
-    <hyperlink ref="D252" r:id="rId221" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-12T00%3A00%3A00.000Z%2C2000-12-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{9BED0DF6-0D2D-2949-ABB1-9D91635C1385}"/>
-    <hyperlink ref="D253" r:id="rId222" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-10T00%3A00%3A00.000Z%2C2000-12-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{955D6342-B79B-6D42-9422-528146265D05}"/>
-    <hyperlink ref="D254" r:id="rId223" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-09T00%3A00%3A00.000Z%2C2000-12-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{25140B68-9D5D-D444-8C29-513338304F39}"/>
-    <hyperlink ref="D255" r:id="rId224" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-08T00%3A00%3A00.000Z%2C2000-12-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{17F164ED-E72A-FA40-A9FD-31D2F5D8D4B5}"/>
-    <hyperlink ref="D256" r:id="rId225" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-02T00%3A00%3A00.000Z%2C2000-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{56AF9888-0C42-DF40-AC58-20745E62AFAF}"/>
-    <hyperlink ref="D257" r:id="rId226" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-01T00%3A00%3A00.000Z%2C2000-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{3E24F3A7-869C-3346-8AB3-83CDE9182D42}"/>
-    <hyperlink ref="D258" r:id="rId227" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-29T00%3A00%3A00.000Z%2C2000-11-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{E469F9C8-E9B0-0E47-8900-2A23954A3D99}"/>
-    <hyperlink ref="D259" r:id="rId228" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-28T00%3A00%3A00.000Z%2C2000-11-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{19DA85BC-E9F5-7B45-8F18-CBF1BF9A9505}"/>
-    <hyperlink ref="D260" r:id="rId229" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-27T00%3A00%3A00.000Z%2C2000-11-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{18B2AF98-9DBF-BB4D-A9DC-75E9910D6523}"/>
-    <hyperlink ref="D261" r:id="rId230" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-21T00%3A00%3A00.000Z%2C2000-11-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{173969CB-E660-FE49-B445-A2446503F561}"/>
-    <hyperlink ref="D262" r:id="rId231" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-10-16T00%3A00%3A00.000Z%2C2000-10-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{09D75F1F-4C3B-0A4C-AE5B-CC6CDC994EC8}"/>
-    <hyperlink ref="D263" r:id="rId232" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-10-15T00%3A00%3A00.000Z%2C2000-10-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{B57009CC-15AD-2749-92E0-A3E0AC1D2EDE}"/>
-    <hyperlink ref="D264" r:id="rId233" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-25T00%3A00%3A00.000Z%2C2000-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{59A52851-1721-E041-BFF0-5DA8917F9BC5}"/>
-    <hyperlink ref="D265" r:id="rId234" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-16T00%3A00%3A00.000Z%2C2000-09-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{0990D882-93F1-C343-BFA4-6DB1D8B9D3D9}"/>
-    <hyperlink ref="D266" r:id="rId235" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-10T00%3A00%3A00.000Z%2C2000-09-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{6785D998-03B9-4849-9BD8-DE2E7886432D}"/>
-    <hyperlink ref="D267" r:id="rId236" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-24T00%3A00%3A00.000Z%2C2000-03-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{1BB361C7-C5EB-234A-A7C1-E66269458B8A}"/>
-    <hyperlink ref="D268" r:id="rId237" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-23T00%3A00%3A00.000Z%2C2000-03-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A8B0D83F-DE72-0947-82D1-DB39F3E3D2A6}"/>
-    <hyperlink ref="D269" r:id="rId238" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-19T00%3A00%3A00.000Z%2C2000-03-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D66D6C95-54FC-5E47-9DF9-2E56550D2071}"/>
-    <hyperlink ref="D270" r:id="rId239" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-07T00%3A00%3A00.000Z%2C2000-03-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{6AAE9444-66DB-B149-A533-C9FDE4545971}"/>
-    <hyperlink ref="D271" r:id="rId240" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-06T00%3A00%3A00.000Z%2C2000-03-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{22ED84C4-D095-C445-AAAD-199FBB43D412}"/>
-    <hyperlink ref="D272" r:id="rId241" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-05T00%3A00%3A00.000Z%2C2000-03-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D064900F-04D0-BF4F-812A-E885CD4825E2}"/>
-    <hyperlink ref="D273" r:id="rId242" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-01T00%3A00%3A00.000Z%2C2000-03-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A7F277D9-BAD7-E34C-B8F5-B24FC50CAC42}"/>
-    <hyperlink ref="D196" r:id="rId243" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-19T00%3A00%3A00.000Z%2C2003-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{2E15D722-5CDA-C24A-91A6-D66FFEF70B1A}"/>
+    <hyperlink ref="D112" r:id="rId81" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-12T00%3A00%3A00.000Z%2C2006-03-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{112BCB06-60A4-8F4E-8AC5-E516776B7D35}"/>
+    <hyperlink ref="D113" r:id="rId82" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-02T00%3A00%3A00.000Z%2C2006-03-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B39B793C-28AA-C24F-8805-6621EA958655}"/>
+    <hyperlink ref="D114" r:id="rId83" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-01T00%3A00%3A00.000Z%2C2006-03-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7E960A70-FFBE-1843-88DB-FCF69ECF1706}"/>
+    <hyperlink ref="D115" r:id="rId84" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-02-28T00%3A00%3A00.000Z%2C2006-02-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{42B9D202-A130-C240-9B2B-25558CC484A8}"/>
+    <hyperlink ref="D116" r:id="rId85" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-02-09T00%3A00%3A00.000Z%2C2006-02-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B57534B1-BD8B-B447-A724-D0F558047433}"/>
+    <hyperlink ref="D117" r:id="rId86" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-27T00%3A00%3A00.000Z%2C2006-01-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{024BE824-0ED7-884F-8FCF-72A2AED68B4C}"/>
+    <hyperlink ref="D118" r:id="rId87" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-21T00%3A00%3A00.000Z%2C2006-01-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E719BE38-19F5-E241-9E8A-E1295CDEA6B2}"/>
+    <hyperlink ref="D119" r:id="rId88" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-18T00%3A00%3A00.000Z%2C2006-01-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D454D2D8-5759-5347-9C98-0F6ABE167487}"/>
+    <hyperlink ref="D120" r:id="rId89" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-16T00%3A00%3A00.000Z%2C2006-01-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DF1B7626-C960-3440-92A9-F3E06B00205D}"/>
+    <hyperlink ref="D121" r:id="rId90" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-15T00%3A00%3A00.000Z%2C2006-01-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C8E80791-F5C3-6C42-AA71-AB7968E36D36}"/>
+    <hyperlink ref="D122" r:id="rId91" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-14T00%3A00%3A00.000Z%2C2006-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{922E9634-18EC-9F41-A7CC-7663F60FBDA0}"/>
+    <hyperlink ref="D123" r:id="rId92" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-04T00%3A00%3A00.000Z%2C2006-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C3C0A4D5-829E-984B-A05D-A36DDBB91EA3}"/>
+    <hyperlink ref="D124" r:id="rId93" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-01-02T00%3A00%3A00.000Z%2C2006-01-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D645B826-EA7F-7242-BD6E-AD93FEE881F0}"/>
+    <hyperlink ref="D125" r:id="rId94" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-25T00%3A00%3A00.000Z%2C2005-12-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{98A724E5-1DD5-FE4D-89DF-E61800FB7143}"/>
+    <hyperlink ref="D126" r:id="rId95" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-24T00%3A00%3A00.000Z%2C2005-12-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5736FF5E-DB19-1B40-AC9E-75E234AB5213}"/>
+    <hyperlink ref="D127" r:id="rId96" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-23T00%3A00%3A00.000Z%2C2005-12-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D192712B-8DE9-8E46-8BFF-74FD8874DFCC}"/>
+    <hyperlink ref="D128" r:id="rId97" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-14T00%3A00%3A00.000Z%2C2005-12-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{280454AB-21D2-834F-A705-9C24DAA0E711}"/>
+    <hyperlink ref="D129" r:id="rId98" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-09T00%3A00%3A00.000Z%2C2005-12-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{69157D88-DDAE-CE4E-9C32-64C2DFE1559B}"/>
+    <hyperlink ref="D130" r:id="rId99" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-07T00%3A00%3A00.000Z%2C2005-12-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9CC8F0DF-C64D-0449-92AA-121F9DD9AE4D}"/>
+    <hyperlink ref="D131" r:id="rId100" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-02T00%3A00%3A00.000Z%2C2005-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{CD443DE3-ADAE-2D42-A7B4-34DADC22990B}"/>
+    <hyperlink ref="D132" r:id="rId101" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-12-01T00%3A00%3A00.000Z%2C2005-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C097FB49-6015-6748-8E7A-070BF0B30D42}"/>
+    <hyperlink ref="D133" r:id="rId102" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-26T00%3A00%3A00.000Z%2C2005-11-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{1C86507A-653B-6F47-A59F-C4ED4984DCCB}"/>
+    <hyperlink ref="D134" r:id="rId103" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-19T00%3A00%3A00.000Z%2C2005-11-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C9D5954E-7F82-BC4F-901E-D93F45DC771C}"/>
+    <hyperlink ref="D135" r:id="rId104" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-16T00%3A00%3A00.000Z%2C2005-11-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2088CE97-11A3-3A4E-AC3F-6E30319F7BDF}"/>
+    <hyperlink ref="D136" r:id="rId105" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-15T00%3A00%3A00.000Z%2C2005-11-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{04B6F500-F8C2-D840-8CCF-5FE7EAEBD7F2}"/>
+    <hyperlink ref="D137" r:id="rId106" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-11-12T00%3A00%3A00.000Z%2C2005-11-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0EDED295-BD15-F34F-A786-BF3E2C4BEC55}"/>
+    <hyperlink ref="D138" r:id="rId107" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-10-11T00%3A00%3A00.000Z%2C2005-10-11T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8426B21C-5226-9B4B-8839-785115FFEFF7}"/>
+    <hyperlink ref="D139" r:id="rId108" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-10-06T00%3A00%3A00.000Z%2C2005-10-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{001DFA6E-E48A-2141-8360-317E2F6D1C47}"/>
+    <hyperlink ref="D140" r:id="rId109" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-09-16T00%3A00%3A00.000Z%2C2005-09-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{898ECB82-BEF6-034F-B950-78C79CC3F02F}"/>
+    <hyperlink ref="D141" r:id="rId110" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-04-06T00%3A00%3A00.000Z%2C2005-04-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8E23B0C5-8B4A-3B42-B1DD-35EDBA566E02}"/>
+    <hyperlink ref="D142" r:id="rId111" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-03-23T00%3A00%3A00.000Z%2C2005-03-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C04FF8D9-3713-5141-9812-4F2ACA937A89}"/>
+    <hyperlink ref="D143" r:id="rId112" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-03-11T00%3A00%3A00.000Z%2C2005-03-11T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9B7C304B-C6BC-124B-8AB9-FCF3527A688C}"/>
+    <hyperlink ref="D144" r:id="rId113" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-24T00%3A00%3A00.000Z%2C2005-02-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{702B82DB-1960-BC46-9FBE-7789E6ECE059}"/>
+    <hyperlink ref="D145" r:id="rId114" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-17T00%3A00%3A00.000Z%2C2005-02-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E1AB5941-F8FB-B145-B701-0794C5EC06EE}"/>
+    <hyperlink ref="D146" r:id="rId115" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-16T00%3A00%3A00.000Z%2C2005-02-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FDFBAC22-4FD6-1C47-8E33-F60B30F85A12}"/>
+    <hyperlink ref="D147" r:id="rId116" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-08T00%3A00%3A00.000Z%2C2005-02-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{409A3225-5AF2-414E-9AB5-F30B8B0FB6A1}"/>
+    <hyperlink ref="D148" r:id="rId117" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-04T00%3A00%3A00.000Z%2C2005-02-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{A1FDE1A4-A766-5543-918B-C5C075782300}"/>
+    <hyperlink ref="D149" r:id="rId118" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-03T00%3A00%3A00.000Z%2C2005-02-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9AA7653E-2CB7-8E4E-A4CE-C56EB1674556}"/>
+    <hyperlink ref="D150" r:id="rId119" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-02-01T00%3A00%3A00.000Z%2C2005-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{554F55FE-57DC-E94B-A618-6A04E0AD51F1}"/>
+    <hyperlink ref="D151" r:id="rId120" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-28T00%3A00%3A00.000Z%2C2005-01-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{07D5772A-3190-5240-959B-07150F812246}"/>
+    <hyperlink ref="D152" r:id="rId121" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-26T00%3A00%3A00.000Z%2C2005-01-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0546340D-E3B0-FF43-AE12-83E59C68D566}"/>
+    <hyperlink ref="D153" r:id="rId122" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-25T00%3A00%3A00.000Z%2C2005-01-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BD554860-3FB4-F543-BE64-D2077F9DA550}"/>
+    <hyperlink ref="D154" r:id="rId123" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-24T00%3A00%3A00.000Z%2C2005-01-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2C169DB4-D299-6B44-972B-7961353D0736}"/>
+    <hyperlink ref="D155" r:id="rId124" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-23T00%3A00%3A00.000Z%2C2005-01-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{43756323-9FC7-D34E-93F7-8AE9C99DF463}"/>
+    <hyperlink ref="D156" r:id="rId125" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-22T00%3A00%3A00.000Z%2C2005-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FE398C8D-D56A-2242-9EBD-602528835A66}"/>
+    <hyperlink ref="D157" r:id="rId126" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-14T00%3A00%3A00.000Z%2C2005-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C2F1E45F-E60D-F74C-B1CB-64542C4A7BA9}"/>
+    <hyperlink ref="D158" r:id="rId127" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-13T00%3A00%3A00.000Z%2C2005-01-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7192BA7C-6C1B-2140-9145-4BB08EA59A8B}"/>
+    <hyperlink ref="D159" r:id="rId128" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-12T00%3A00%3A00.000Z%2C2005-01-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E5EEF6EA-B421-4C4B-9A08-C76A3E51013D}"/>
+    <hyperlink ref="D160" r:id="rId129" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-08T00%3A00%3A00.000Z%2C2005-01-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9A857016-0C0C-7340-A665-70C2911669A5}"/>
+    <hyperlink ref="D161" r:id="rId130" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-07T00%3A00%3A00.000Z%2C2005-01-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{596C3A71-DC64-CA4E-9B06-9F8CFF330B92}"/>
+    <hyperlink ref="D162" r:id="rId131" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-04T00%3A00%3A00.000Z%2C2005-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{E75EB0CE-DFB4-3E45-9A72-9C5A9A53E92E}"/>
+    <hyperlink ref="D163" r:id="rId132" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-03T00%3A00%3A00.000Z%2C2005-01-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{394D1AAF-65D1-7949-AE90-F85C29C42807}"/>
+    <hyperlink ref="D164" r:id="rId133" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-02T00%3A00%3A00.000Z%2C2005-01-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{90877B04-B090-2F4F-BD8D-5C8F85E83A6B}"/>
+    <hyperlink ref="D165" r:id="rId134" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2005-01-01T00%3A00%3A00.000Z%2C2005-01-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0B76F23B-DC79-4842-B612-65566C8A7D5D}"/>
+    <hyperlink ref="D166" r:id="rId135" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-28T00%3A00%3A00.000Z%2C2004-12-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DC4A71FB-8897-0846-A0EC-723BCED9CDAA}"/>
+    <hyperlink ref="D167" r:id="rId136" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-27T00%3A00%3A00.000Z%2C2004-12-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{731F2532-2CD7-BC4D-BFE4-A19C5CE0A34E}"/>
+    <hyperlink ref="D168" r:id="rId137" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-26T00%3A00%3A00.000Z%2C2004-12-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{2BCA3341-30F7-7042-B75D-3422A397CC5C}"/>
+    <hyperlink ref="D169" r:id="rId138" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-25T00%3A00%3A00.000Z%2C2004-12-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{08E29EA9-A491-DE4A-BD9E-FAB54860718F}"/>
+    <hyperlink ref="D170" r:id="rId139" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-24T00%3A00%3A00.000Z%2C2004-12-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{90AB206E-2547-7D4C-B1F0-9EC5178651F2}"/>
+    <hyperlink ref="D171" r:id="rId140" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-21T00%3A00%3A00.000Z%2C2004-12-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{36DAF6AB-88E6-354E-879A-460B9BBF2BDA}"/>
+    <hyperlink ref="D172" r:id="rId141" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-20T00%3A00%3A00.000Z%2C2004-12-20T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{7D12782E-8ADC-BF4A-9D56-89D261EB3E03}"/>
+    <hyperlink ref="D173" r:id="rId142" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-19T00%3A00%3A00.000Z%2C2004-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8D5EC8E0-3BD5-B344-A9C1-BC95B3A23486}"/>
+    <hyperlink ref="D174" r:id="rId143" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-08T00%3A00%3A00.000Z%2C2004-12-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0F95BDD1-4502-D84C-BE50-A0DE03B3D2C8}"/>
+    <hyperlink ref="D175" r:id="rId144" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-12-01T00%3A00%3A00.000Z%2C2004-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8AFCB59A-4E45-6E4F-944F-06B17420AD2B}"/>
+    <hyperlink ref="D176" r:id="rId145" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-29T00%3A00%3A00.000Z%2C2004-11-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{220A6537-25EF-E647-BD97-3CF338D72E57}"/>
+    <hyperlink ref="D177" r:id="rId146" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-22T00%3A00%3A00.000Z%2C2004-11-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B2381ED9-4899-6B40-BF82-9C86EFFB324F}"/>
+    <hyperlink ref="D178" r:id="rId147" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-11-21T00%3A00%3A00.000Z%2C2004-11-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{71A53085-0163-CB41-9AD5-7A59D6AA915E}"/>
+    <hyperlink ref="D179" r:id="rId148" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-10-31T00%3A00%3A00.000Z%2C2004-10-31T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{84335060-8AE9-FA4B-B902-EBA845B8AC46}"/>
+    <hyperlink ref="D180" r:id="rId149" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-10-02T00%3A00%3A00.000Z%2C2004-10-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{74864D8D-8C4B-2248-B044-AE9BF9188A8E}"/>
+    <hyperlink ref="D181" r:id="rId150" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-09-25T00%3A00%3A00.000Z%2C2004-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6A64EC4D-F65E-E341-9B1D-BF2360E1AA46}"/>
+    <hyperlink ref="D182" r:id="rId151" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-09-21T00%3A00%3A00.000Z%2C2004-09-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FEDC5864-5053-EA4D-96EA-96E2A64EE41C}"/>
+    <hyperlink ref="D183" r:id="rId152" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-24T00%3A00%3A00.000Z%2C2004-03-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0493D198-0187-CF49-85BF-7F8000D79A53}"/>
+    <hyperlink ref="D184" r:id="rId153" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-18T00%3A00%3A00.000Z%2C2004-03-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{CC0089AA-F5FF-4940-9294-840087CA6EBA}"/>
+    <hyperlink ref="D185" r:id="rId154" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-03-04T00%3A00%3A00.000Z%2C2004-03-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{697A0583-1C33-E643-A527-7FDD6253C262}"/>
+    <hyperlink ref="D186" r:id="rId155" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-23T00%3A00%3A00.000Z%2C2004-02-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5DF4BD8C-DC0C-9D49-9F81-5E0841AC76EB}"/>
+    <hyperlink ref="D187" r:id="rId156" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-21T00%3A00%3A00.000Z%2C2004-02-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BA776BB6-828F-D843-A62F-57A36D8AF41F}"/>
+    <hyperlink ref="D188" r:id="rId157" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-16T00%3A00%3A00.000Z%2C2004-02-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{71EAF9E0-8DE7-F14B-99AC-6D4E3084EC76}"/>
+    <hyperlink ref="D189" r:id="rId158" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-15T00%3A00%3A00.000Z%2C2004-02-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{3DCB49E6-4F12-9D4A-B458-921B56D33AE9}"/>
+    <hyperlink ref="D190" r:id="rId159" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-02-01T00%3A00%3A00.000Z%2C2004-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5C32A502-556A-0447-B3DC-1F201189E3FB}"/>
+    <hyperlink ref="D191" r:id="rId160" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-31T00%3A00%3A00.000Z%2C2004-01-31T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6F51A69A-DA15-D040-B456-5AD5471AF935}"/>
+    <hyperlink ref="D192" r:id="rId161" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-30T00%3A00%3A00.000Z%2C2004-01-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{206AC642-7D7F-F549-B0CC-C32E69D3F458}"/>
+    <hyperlink ref="D193" r:id="rId162" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-22T00%3A00%3A00.000Z%2C2004-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{FE25FDAF-9F40-684C-85B1-46DB5289C5AE}"/>
+    <hyperlink ref="D194" r:id="rId163" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-21T00%3A00%3A00.000Z%2C2004-01-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{F9613D1E-A817-0C4B-9BA7-05EE08B7D8DA}"/>
+    <hyperlink ref="D195" r:id="rId164" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-16T00%3A00%3A00.000Z%2C2004-01-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{6729FC57-C5D5-6040-87E0-CCEDE365199B}"/>
+    <hyperlink ref="D196" r:id="rId165" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2004-01-07T00%3A00%3A00.000Z%2C2004-01-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{53240F4F-FA6D-4641-951B-CD3DFA564169}"/>
+    <hyperlink ref="D198" r:id="rId166" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-17T00%3A00%3A00.000Z%2C2003-12-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{07E8A216-8CE9-BD42-BC82-CC12EBF8D2BC}"/>
+    <hyperlink ref="D199" r:id="rId167" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-16T00%3A00%3A00.000Z%2C2003-12-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{44B32A36-6B69-8040-B46F-A540FF62C435}"/>
+    <hyperlink ref="D200" r:id="rId168" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-15T00%3A00%3A00.000Z%2C2003-12-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{9AC2444A-A1A6-D449-96D2-21C3EF9CCA89}"/>
+    <hyperlink ref="D201" r:id="rId169" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-14T00%3A00%3A00.000Z%2C2003-12-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DFF960B0-E5C3-B94C-8533-17E672377887}"/>
+    <hyperlink ref="D202" r:id="rId170" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-13T00%3A00%3A00.000Z%2C2003-12-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8D8A7905-6703-5645-9792-7A1E2FDDFC3D}"/>
+    <hyperlink ref="D203" r:id="rId171" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-04T00%3A00%3A00.000Z%2C2003-12-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{51286F25-8B46-3847-B00B-20D99DFF7E78}"/>
+    <hyperlink ref="D204" r:id="rId172" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-02T00%3A00%3A00.000Z%2C2003-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{70A3E78F-D6AA-1B49-BF4C-25158647A0D7}"/>
+    <hyperlink ref="D205" r:id="rId173" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-01T00%3A00%3A00.000Z%2C2003-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{8BA38F99-CE32-9E43-9214-663CF1E49B4B}"/>
+    <hyperlink ref="D206" r:id="rId174" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-26T00%3A00%3A00.000Z%2C2003-11-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AF97571E-C440-5E40-8936-BA13686CCB9F}"/>
+    <hyperlink ref="D207" r:id="rId175" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-25T00%3A00%3A00.000Z%2C2003-11-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D8A362B7-18D5-0F41-9579-3A5A8AB2F4EF}"/>
+    <hyperlink ref="D208" r:id="rId176" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-24T00%3A00%3A00.000Z%2C2003-11-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AC0D4D1F-BE13-944E-B162-AE472EDA9757}"/>
+    <hyperlink ref="D209" r:id="rId177" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-23T00%3A00%3A00.000Z%2C2003-11-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0674E6D7-2336-0C44-A61B-2710C46A60BD}"/>
+    <hyperlink ref="D210" r:id="rId178" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-18T00%3A00%3A00.000Z%2C2003-11-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AD49385F-205D-904C-BA80-FF0A846391A7}"/>
+    <hyperlink ref="D211" r:id="rId179" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-12T00%3A00%3A00.000Z%2C2003-11-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{23D9A8A2-678D-8A4F-8A7F-A4394E833AC4}"/>
+    <hyperlink ref="D212" r:id="rId180" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-05T00%3A00%3A00.000Z%2C2003-11-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{BAE677B9-5D2D-7A42-8B1A-8EA00297E2A8}"/>
+    <hyperlink ref="D213" r:id="rId181" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-11-04T00%3A00%3A00.000Z%2C2003-11-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{193C40C0-37FA-1749-BB47-E6459A3D6949}"/>
+    <hyperlink ref="D214" r:id="rId182" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-26T00%3A00%3A00.000Z%2C2003-10-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{C747FF14-B0A1-7846-82E5-C98CEC1FB89F}"/>
+    <hyperlink ref="D215" r:id="rId183" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-25T00%3A00%3A00.000Z%2C2003-10-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5EB2DC56-CF69-7A45-A82F-01DE5243B694}"/>
+    <hyperlink ref="D216" r:id="rId184" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-23T00%3A00%3A00.000Z%2C2003-10-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{5161095D-EFEB-E947-A2DF-31750C9CF889}"/>
+    <hyperlink ref="D217" r:id="rId185" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-02T00%3A00%3A00.000Z%2C2003-10-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{F98ABF14-4646-CC43-A1C7-29E4ECCD22F8}"/>
+    <hyperlink ref="D218" r:id="rId186" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-10-01T00%3A00%3A00.000Z%2C2003-10-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{AEF309E5-76B7-704B-8CA4-308DE82642E5}"/>
+    <hyperlink ref="D219" r:id="rId187" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-30T00%3A00%3A00.000Z%2C2003-09-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{D8A76354-ACE9-1942-90FD-979C280AC6A9}"/>
+    <hyperlink ref="D220" r:id="rId188" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-29T00%3A00%3A00.000Z%2C2003-09-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{0680EC95-B0E9-984E-9CC9-CF7B81869788}"/>
+    <hyperlink ref="D221" r:id="rId189" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-26T00%3A00%3A00.000Z%2C2003-09-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{DD04D622-50FC-8B47-8AC4-9A912A8CFEA6}"/>
+    <hyperlink ref="D222" r:id="rId190" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-25T00%3A00%3A00.000Z%2C2003-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{4EFA28D1-98AB-BE46-BB8B-5BD324EF003B}"/>
+    <hyperlink ref="D223" r:id="rId191" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-09-07T00%3A00%3A00.000Z%2C2003-09-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{33D659AE-B492-344C-8984-D852950D40F1}"/>
+    <hyperlink ref="D224" r:id="rId192" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-10-01T00%3A00%3A00.000Z%2C2001-10-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{195030A9-A0FA-C54C-A336-A8E250F18AD2}"/>
+    <hyperlink ref="D225" r:id="rId193" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-09-29T00%3A00%3A00.000Z%2C2001-09-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{25BDA563-B4F4-F646-AAE3-A1129ECB0950}"/>
+    <hyperlink ref="D226" r:id="rId194" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-03-27T00%3A00%3A00.000Z%2C2001-03-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{06C55310-2709-1844-8842-E1242816A60A}"/>
+    <hyperlink ref="D227" r:id="rId195" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-26T00%3A00%3A00.000Z%2C2001-02-26T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{B655222B-08D8-7849-8EA9-7273E5E20E60}"/>
+    <hyperlink ref="D228" r:id="rId196" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-25T00%3A00%3A00.000Z%2C2001-02-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.0625&amp;zoom=1" xr:uid="{99A2D02E-1E14-EC4A-B489-33DA1C36A68A}"/>
+    <hyperlink ref="D229" r:id="rId197" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-21T00%3A00%3A00.000Z%2C2001-02-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{15E62C10-C9CA-0344-88CB-5DA996FF944E}"/>
+    <hyperlink ref="D230" r:id="rId198" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-12T00%3A00%3A00.000Z%2C2001-02-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{358CD317-180D-5741-85F1-F2193C6787DA}"/>
+    <hyperlink ref="D231" r:id="rId199" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-10T00%3A00%3A00.000Z%2C2001-02-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{4FA0F34E-13F9-644A-B205-06BB6D470117}"/>
+    <hyperlink ref="D232" r:id="rId200" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-05T00%3A00%3A00.000Z%2C2001-02-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{92EE0FC6-ECF6-754F-B160-3864C0CC272C}"/>
+    <hyperlink ref="D233" r:id="rId201" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-04T00%3A00%3A00.000Z%2C2001-02-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{092E9FF9-BDB2-7F4F-8094-6CDCF19137F1}"/>
+    <hyperlink ref="D234" r:id="rId202" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-02T00%3A00%3A00.000Z%2C2001-02-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{B51C6729-DC25-4D42-9AD9-5B17C4B926E5}"/>
+    <hyperlink ref="D235" r:id="rId203" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-02-01T00%3A00%3A00.000Z%2C2001-02-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{20F7C2A9-7327-5B4D-BBAB-76FE04134DB6}"/>
+    <hyperlink ref="D236" r:id="rId204" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-30T00%3A00%3A00.000Z%2C2001-01-30T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{DDA839DD-7826-BA4D-B618-3FBE909B30E8}"/>
+    <hyperlink ref="D237" r:id="rId205" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-23T00%3A00%3A00.000Z%2C2001-01-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D97870E0-A36B-CE45-81F4-E482A87FB8F2}"/>
+    <hyperlink ref="D238" r:id="rId206" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-22T00%3A00%3A00.000Z%2C2001-01-22T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A14B9FBB-9D54-EC42-9D04-6E0158F6ACC3}"/>
+    <hyperlink ref="D239" r:id="rId207" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-17T00%3A00%3A00.000Z%2C2001-01-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{5E5589E8-1EFE-874E-99E4-A52DA356EB60}"/>
+    <hyperlink ref="D240" r:id="rId208" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-14T00%3A00%3A00.000Z%2C2001-01-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{641BD262-DFC5-E84A-B677-9837A1B63378}"/>
+    <hyperlink ref="D241" r:id="rId209" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-13T00%3A00%3A00.000Z%2C2001-01-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{0C74DA12-28DE-C845-8B23-6B37A573214A}"/>
+    <hyperlink ref="D242" r:id="rId210" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-12T00%3A00%3A00.000Z%2C2001-01-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{26DDD478-1ACA-8B4A-970C-EDD28ED9CEEE}"/>
+    <hyperlink ref="D243" r:id="rId211" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-04T00%3A00%3A00.000Z%2C2001-01-04T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D35616A1-CD95-D148-8B6B-A875E900A5F7}"/>
+    <hyperlink ref="D244" r:id="rId212" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-03T00%3A00%3A00.000Z%2C2001-01-03T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{E2CEA45A-54F7-CB49-9F97-B2D677DA5730}"/>
+    <hyperlink ref="D245" r:id="rId213" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2001-01-01T00%3A00%3A00.000Z%2C2001-01-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{34F35216-B8A0-6F48-B11D-DB7AF5F7193A}"/>
+    <hyperlink ref="D246" r:id="rId214" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-21T00%3A00%3A00.000Z%2C2000-12-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{2EB27483-25BD-D844-8E84-A532F146CE15}"/>
+    <hyperlink ref="D247" r:id="rId215" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-20T00%3A00%3A00.000Z%2C2000-12-20T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{83E0B7D0-43FC-9B46-A2AB-EAB1F414E6EA}"/>
+    <hyperlink ref="D248" r:id="rId216" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-19T00%3A00%3A00.000Z%2C2000-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{EF92192F-59FD-3B48-B093-2F153A0B147C}"/>
+    <hyperlink ref="D249" r:id="rId217" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-18T00%3A00%3A00.000Z%2C2000-12-18T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{645E73CD-CF79-A041-90D4-F4C66FBF3E03}"/>
+    <hyperlink ref="D250" r:id="rId218" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-17T00%3A00%3A00.000Z%2C2000-12-17T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{3D6700B9-9F22-4140-B8E8-CB38011C75D6}"/>
+    <hyperlink ref="D251" r:id="rId219" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-16T00%3A00%3A00.000Z%2C2000-12-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{63A74CB0-CC90-E746-9B63-FA44AAD388F0}"/>
+    <hyperlink ref="D252" r:id="rId220" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-13T00%3A00%3A00.000Z%2C2000-12-13T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{7D6DDEC9-9B44-8849-975D-7BC6374F500D}"/>
+    <hyperlink ref="D253" r:id="rId221" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-12T00%3A00%3A00.000Z%2C2000-12-12T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{9BED0DF6-0D2D-2949-ABB1-9D91635C1385}"/>
+    <hyperlink ref="D254" r:id="rId222" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-10T00%3A00%3A00.000Z%2C2000-12-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{955D6342-B79B-6D42-9422-528146265D05}"/>
+    <hyperlink ref="D255" r:id="rId223" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-09T00%3A00%3A00.000Z%2C2000-12-09T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{25140B68-9D5D-D444-8C29-513338304F39}"/>
+    <hyperlink ref="D256" r:id="rId224" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-08T00%3A00%3A00.000Z%2C2000-12-08T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{17F164ED-E72A-FA40-A9FD-31D2F5D8D4B5}"/>
+    <hyperlink ref="D257" r:id="rId225" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-02T00%3A00%3A00.000Z%2C2000-12-02T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{56AF9888-0C42-DF40-AC58-20745E62AFAF}"/>
+    <hyperlink ref="D258" r:id="rId226" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-12-01T00%3A00%3A00.000Z%2C2000-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{3E24F3A7-869C-3346-8AB3-83CDE9182D42}"/>
+    <hyperlink ref="D259" r:id="rId227" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-29T00%3A00%3A00.000Z%2C2000-11-29T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{E469F9C8-E9B0-0E47-8900-2A23954A3D99}"/>
+    <hyperlink ref="D260" r:id="rId228" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-28T00%3A00%3A00.000Z%2C2000-11-28T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{19DA85BC-E9F5-7B45-8F18-CBF1BF9A9505}"/>
+    <hyperlink ref="D261" r:id="rId229" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-27T00%3A00%3A00.000Z%2C2000-11-27T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{18B2AF98-9DBF-BB4D-A9DC-75E9910D6523}"/>
+    <hyperlink ref="D262" r:id="rId230" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-11-21T00%3A00%3A00.000Z%2C2000-11-21T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{173969CB-E660-FE49-B445-A2446503F561}"/>
+    <hyperlink ref="D263" r:id="rId231" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-10-16T00%3A00%3A00.000Z%2C2000-10-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{09D75F1F-4C3B-0A4C-AE5B-CC6CDC994EC8}"/>
+    <hyperlink ref="D264" r:id="rId232" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-10-15T00%3A00%3A00.000Z%2C2000-10-15T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{B57009CC-15AD-2749-92E0-A3E0AC1D2EDE}"/>
+    <hyperlink ref="D265" r:id="rId233" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-25T00%3A00%3A00.000Z%2C2000-09-25T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{59A52851-1721-E041-BFF0-5DA8917F9BC5}"/>
+    <hyperlink ref="D266" r:id="rId234" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-16T00%3A00%3A00.000Z%2C2000-09-16T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{0990D882-93F1-C343-BFA4-6DB1D8B9D3D9}"/>
+    <hyperlink ref="D267" r:id="rId235" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-09-10T00%3A00%3A00.000Z%2C2000-09-10T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{6785D998-03B9-4849-9BD8-DE2E7886432D}"/>
+    <hyperlink ref="D268" r:id="rId236" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-24T00%3A00%3A00.000Z%2C2000-03-24T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{1BB361C7-C5EB-234A-A7C1-E66269458B8A}"/>
+    <hyperlink ref="D269" r:id="rId237" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-23T00%3A00%3A00.000Z%2C2000-03-23T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A8B0D83F-DE72-0947-82D1-DB39F3E3D2A6}"/>
+    <hyperlink ref="D270" r:id="rId238" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-19T00%3A00%3A00.000Z%2C2000-03-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D66D6C95-54FC-5E47-9DF9-2E56550D2071}"/>
+    <hyperlink ref="D271" r:id="rId239" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-07T00%3A00%3A00.000Z%2C2000-03-07T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{6AAE9444-66DB-B149-A533-C9FDE4545971}"/>
+    <hyperlink ref="D272" r:id="rId240" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-06T00%3A00%3A00.000Z%2C2000-03-06T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{22ED84C4-D095-C445-AAAD-199FBB43D412}"/>
+    <hyperlink ref="D273" r:id="rId241" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-05T00%3A00%3A00.000Z%2C2000-03-05T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{D064900F-04D0-BF4F-812A-E885CD4825E2}"/>
+    <hyperlink ref="D274" r:id="rId242" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2000-03-01T00%3A00%3A00.000Z%2C2000-03-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{A7F277D9-BAD7-E34C-B8F5-B24FC50CAC42}"/>
+    <hyperlink ref="D197" r:id="rId243" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2003-12-19T00%3A00%3A00.000Z%2C2003-12-19T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{2E15D722-5CDA-C24A-91A6-D66FFEF70B1A}"/>
     <hyperlink ref="D69" r:id="rId244" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2017-09-14T00%3A00%3A00.000Z%2C2017-09-14T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{0CA68B13-254F-8841-B2F6-733E0474E7AE}"/>
     <hyperlink ref="D14" r:id="rId245" display="https://search.earthdata.nasa.gov/search/granules?p=C1713215948-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2022-12-01T00%3A00%3A00.000Z%2C2022-12-01T23%3A59%3A59.999Z&amp;fl=2%2B-%2BGeophys.%2BVariables%252C%2BSensor%2BCoordinates&amp;tl=1676490472!3!!&amp;lat=-70.59375&amp;long=-230.203125&amp;zoom=1" xr:uid="{039E7473-6F51-BA44-8E19-1030ABB413B1}"/>
+    <hyperlink ref="D111" r:id="rId246" display="https://search.earthdata.nasa.gov/search/granules?p=C1231597226-LAADS&amp;pg[0][v]=f&amp;pg[0][gsk]=-start_date&amp;q=MOD09&amp;circle[0]=-102%2C-75%2C100000&amp;qt=2006-03-21T00%3A00%3A00.000Z%2C2006-03-21T23%3A59%3A59.999Z&amp;tl=1637348351!3!!&amp;lat=-81.0703125&amp;long=-140.4140625" xr:uid="{318FE696-A415-2248-A402-669877E9A9B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7446,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104F9C5-4C20-2E48-A77A-19C9A095A377}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7455,24 +7478,24 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="60.1640625" customWidth="1"/>
+    <col min="4" max="4" width="83" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>346</v>
       </c>
     </row>
